--- a/CONTRERAS, SARAH JANE.xlsx
+++ b/CONTRERAS, SARAH JANE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1267,7 +1267,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1426,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.75</v>
+        <v>60.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1436,7 +1436,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.75</v>
+        <v>60.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2954,13 +2954,15 @@
       <c r="B82" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="40">
         <v>1</v>
@@ -2976,13 +2978,15 @@
         <v>45108</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
@@ -2994,13 +2998,15 @@
         <v>45139</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
@@ -3011,19 +3017,27 @@
       <c r="A85" s="41">
         <v>45170</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="B85" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="40"/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H85" s="40">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="48">
+        <v>45194</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
